--- a/medicine/Psychotrope/Alicante_(DO)/Alicante_(DO).xlsx
+++ b/medicine/Psychotrope/Alicante_(DO)/Alicante_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alicante (DO) est une appellation d'origine contrôlée espagnole de vins de la région d'Alicante. Elle se divise en deux sous-zones: La Marina, sur la côte nord d'Alicante, et celle du Vinalopó, qui s'étend jusqu'aux limites de Castille-La Manche et Murcie, sur 14 256 ha. Il y a 50 caves inscrites.
 Cette AOC a obtenu la qualification de Denominación de origen en 1957.
@@ -512,7 +524,9 @@
           <t>L'Environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'altitude moyenne des vignobles est de 600 mètres.
 Les sols sont principalement calcaires, sains et libres de matière organique.
@@ -545,7 +559,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rouges : Grenache, Monastrell, Tempranillo, Bobal, Cabernet Sauvignon, Merlot, Pinot poir et  Syrah.
 Blancs : Planta Fina, Merseguera, Chardonnay, Verdil, Sauvignon blanc, Airén et Macabeu.</t>
@@ -576,7 +592,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1980 Bonne
 1981 Bonne
@@ -632,7 +650,9 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des Caves de l'AOC Alicante - Mis à jour en septembre 2009
 Source : Consejo Regulador D.O. Alicante
